--- a/Modbus地址20190923.xlsx
+++ b/Modbus地址20190923.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STM32\Dehumidifier_2019_09_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F5723A-9470-4472-B011-E5D6303E29C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC864125-3B3F-444E-AE20-F6AA08E5DC8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A421503F-4E4B-4660-ABFD-279B12D55E43}"/>
   </bookViews>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC7E6BB-0334-41B0-BD63-F5DCAA0B07CE}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
